--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf10</t>
   </si>
   <si>
     <t>Tnfrsf10b</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.5144951287644</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H2">
-        <v>16.5144951287644</v>
+        <v>53.031415</v>
       </c>
       <c r="I2">
-        <v>0.8035921537842492</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J2">
-        <v>0.8035921537842492</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.5172257189742</v>
+        <v>13.08067733333333</v>
       </c>
       <c r="N2">
-        <v>11.5172257189742</v>
+        <v>39.24203199999999</v>
       </c>
       <c r="O2">
-        <v>0.6868219027751622</v>
+        <v>0.6621446251628267</v>
       </c>
       <c r="P2">
-        <v>0.6868219027751622</v>
+        <v>0.6859835984989974</v>
       </c>
       <c r="Q2">
-        <v>190.2011680328795</v>
+        <v>231.2289427150311</v>
       </c>
       <c r="R2">
-        <v>190.2011680328795</v>
+        <v>2081.06048443528</v>
       </c>
       <c r="S2">
-        <v>0.5519246921172888</v>
+        <v>0.4877039264405649</v>
       </c>
       <c r="T2">
-        <v>0.5519246921172888</v>
+        <v>0.5058856167998844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.5144951287644</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H3">
-        <v>16.5144951287644</v>
+        <v>53.031415</v>
       </c>
       <c r="I3">
-        <v>0.8035921537842492</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J3">
-        <v>0.8035921537842492</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.53847486906217</v>
+        <v>3.909188</v>
       </c>
       <c r="N3">
-        <v>3.53847486906217</v>
+        <v>11.727564</v>
       </c>
       <c r="O3">
-        <v>0.2110145361211025</v>
+        <v>0.1978833172770733</v>
       </c>
       <c r="P3">
-        <v>0.2110145361211025</v>
+        <v>0.2050076447200108</v>
       </c>
       <c r="Q3">
-        <v>58.43612598838245</v>
+        <v>69.10325704700666</v>
       </c>
       <c r="R3">
-        <v>58.43612598838245</v>
+        <v>621.92931342306</v>
       </c>
       <c r="S3">
-        <v>0.1695696255613411</v>
+        <v>0.1457513466780471</v>
       </c>
       <c r="T3">
-        <v>0.1695696255613411</v>
+        <v>0.1511849831756959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.5144951287644</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H4">
-        <v>16.5144951287644</v>
+        <v>53.031415</v>
       </c>
       <c r="I4">
-        <v>0.8035921537842492</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J4">
-        <v>0.8035921537842492</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.281986221992543</v>
+        <v>0.4136356666666667</v>
       </c>
       <c r="N4">
-        <v>0.281986221992543</v>
+        <v>1.240907</v>
       </c>
       <c r="O4">
-        <v>0.01681605607730918</v>
+        <v>0.02093826080099338</v>
       </c>
       <c r="P4">
-        <v>0.01681605607730918</v>
+        <v>0.02169209406033295</v>
       </c>
       <c r="Q4">
-        <v>4.656860089474527</v>
+        <v>7.311894899267222</v>
       </c>
       <c r="R4">
-        <v>4.656860089474527</v>
+        <v>65.807054093405</v>
       </c>
       <c r="S4">
-        <v>0.01351325072132159</v>
+        <v>0.01542211718923174</v>
       </c>
       <c r="T4">
-        <v>0.01351325072132159</v>
+        <v>0.01599705650019077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.5144951287644</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H5">
-        <v>16.5144951287644</v>
+        <v>53.031415</v>
       </c>
       <c r="I5">
-        <v>0.8035921537842492</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J5">
-        <v>0.8035921537842492</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43118103247563</v>
+        <v>0.2919639999999999</v>
       </c>
       <c r="N5">
-        <v>1.43118103247563</v>
+        <v>0.8758919999999999</v>
       </c>
       <c r="O5">
-        <v>0.085347505026426</v>
+        <v>0.01477923416460999</v>
       </c>
       <c r="P5">
-        <v>0.085347505026426</v>
+        <v>0.01531132603063174</v>
       </c>
       <c r="Q5">
-        <v>23.6352321891988</v>
+        <v>5.161088016353332</v>
       </c>
       <c r="R5">
-        <v>23.6352321891988</v>
+        <v>46.44979214717999</v>
       </c>
       <c r="S5">
-        <v>0.06858458538429771</v>
+        <v>0.01088567400225043</v>
       </c>
       <c r="T5">
-        <v>0.06858458538429771</v>
+        <v>0.01129149389282605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33304312828523</v>
+        <v>17.67713833333333</v>
       </c>
       <c r="H6">
-        <v>1.33304312828523</v>
+        <v>53.031415</v>
       </c>
       <c r="I6">
-        <v>0.06486562200016642</v>
+        <v>0.7365519675110775</v>
       </c>
       <c r="J6">
-        <v>0.06486562200016642</v>
+        <v>0.7374602219452683</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.5172257189742</v>
+        <v>2.0595505</v>
       </c>
       <c r="N6">
-        <v>11.5172257189742</v>
+        <v>4.119101</v>
       </c>
       <c r="O6">
-        <v>0.6868219027751622</v>
+        <v>0.1042545625944965</v>
       </c>
       <c r="P6">
-        <v>0.6868219027751622</v>
+        <v>0.07200533669002712</v>
       </c>
       <c r="Q6">
-        <v>15.35295860158848</v>
+        <v>36.40695909298583</v>
       </c>
       <c r="R6">
-        <v>15.35295860158848</v>
+        <v>218.441754557915</v>
       </c>
       <c r="S6">
-        <v>0.04455112992684872</v>
+        <v>0.07678890320098322</v>
       </c>
       <c r="T6">
-        <v>0.04455112992684872</v>
+        <v>0.05310107157667117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.33304312828523</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H7">
-        <v>1.33304312828523</v>
+        <v>5.199877</v>
       </c>
       <c r="I7">
-        <v>0.06486562200016642</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J7">
-        <v>0.06486562200016642</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.53847486906217</v>
+        <v>13.08067733333333</v>
       </c>
       <c r="N7">
-        <v>3.53847486906217</v>
+        <v>39.24203199999999</v>
       </c>
       <c r="O7">
-        <v>0.2110145361211025</v>
+        <v>0.6621446251628267</v>
       </c>
       <c r="P7">
-        <v>0.2110145361211025</v>
+        <v>0.6859835984989974</v>
       </c>
       <c r="Q7">
-        <v>4.716939608813305</v>
+        <v>22.67263773667377</v>
       </c>
       <c r="R7">
-        <v>4.716939608813305</v>
+        <v>204.053739630064</v>
       </c>
       <c r="S7">
-        <v>0.0136875891365719</v>
+        <v>0.04782071966037463</v>
       </c>
       <c r="T7">
-        <v>0.0136875891365719</v>
+        <v>0.04960348471615424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.33304312828523</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H8">
-        <v>1.33304312828523</v>
+        <v>5.199877</v>
       </c>
       <c r="I8">
-        <v>0.06486562200016642</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J8">
-        <v>0.06486562200016642</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.281986221992543</v>
+        <v>3.909188</v>
       </c>
       <c r="N8">
-        <v>0.281986221992543</v>
+        <v>11.727564</v>
       </c>
       <c r="O8">
-        <v>0.01681605607730918</v>
+        <v>0.1978833172770733</v>
       </c>
       <c r="P8">
-        <v>0.01681605607730918</v>
+        <v>0.2050076447200108</v>
       </c>
       <c r="Q8">
-        <v>0.3758997954982728</v>
+        <v>6.775765589958667</v>
       </c>
       <c r="R8">
-        <v>0.3758997954982728</v>
+        <v>60.98189030962801</v>
       </c>
       <c r="S8">
-        <v>0.001090783937044338</v>
+        <v>0.01429132289436749</v>
       </c>
       <c r="T8">
-        <v>0.001090783937044338</v>
+        <v>0.01482410599001909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.33304312828523</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H9">
-        <v>1.33304312828523</v>
+        <v>5.199877</v>
       </c>
       <c r="I9">
-        <v>0.06486562200016642</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J9">
-        <v>0.06486562200016642</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.43118103247563</v>
+        <v>0.4136356666666667</v>
       </c>
       <c r="N9">
-        <v>1.43118103247563</v>
+        <v>1.240907</v>
       </c>
       <c r="O9">
-        <v>0.085347505026426</v>
+        <v>0.02093826080099338</v>
       </c>
       <c r="P9">
-        <v>0.085347505026426</v>
+        <v>0.02169209406033295</v>
       </c>
       <c r="Q9">
-        <v>1.907826040673799</v>
+        <v>0.7169515298265555</v>
       </c>
       <c r="R9">
-        <v>1.907826040673799</v>
+        <v>6.452563768439</v>
       </c>
       <c r="S9">
-        <v>0.005536118999701453</v>
+        <v>0.00151218126960389</v>
       </c>
       <c r="T9">
-        <v>0.005536118999701453</v>
+        <v>0.001568555660131688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.52807221271776</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H10">
-        <v>1.52807221271776</v>
+        <v>5.199877</v>
       </c>
       <c r="I10">
-        <v>0.07435569970388808</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J10">
-        <v>0.07435569970388808</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.5172257189742</v>
+        <v>0.2919639999999999</v>
       </c>
       <c r="N10">
-        <v>11.5172257189742</v>
+        <v>0.8758919999999999</v>
       </c>
       <c r="O10">
-        <v>0.6868219027751622</v>
+        <v>0.01477923416460999</v>
       </c>
       <c r="P10">
-        <v>0.6868219027751622</v>
+        <v>0.01531132603063174</v>
       </c>
       <c r="Q10">
-        <v>17.5991525887628</v>
+        <v>0.5060589628093332</v>
       </c>
       <c r="R10">
-        <v>17.5991525887628</v>
+        <v>4.554530665283999</v>
       </c>
       <c r="S10">
-        <v>0.05106912315280298</v>
+        <v>0.001067370460957905</v>
       </c>
       <c r="T10">
-        <v>0.05106912315280298</v>
+        <v>0.001107162224295667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.52807221271776</v>
+        <v>1.733292333333333</v>
       </c>
       <c r="H11">
-        <v>1.52807221271776</v>
+        <v>5.199877</v>
       </c>
       <c r="I11">
-        <v>0.07435569970388808</v>
+        <v>0.07222095874993341</v>
       </c>
       <c r="J11">
-        <v>0.07435569970388808</v>
+        <v>0.07231001561071104</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.53847486906217</v>
+        <v>2.0595505</v>
       </c>
       <c r="N11">
-        <v>3.53847486906217</v>
+        <v>4.119101</v>
       </c>
       <c r="O11">
-        <v>0.2110145361211025</v>
+        <v>0.1042545625944965</v>
       </c>
       <c r="P11">
-        <v>0.2110145361211025</v>
+        <v>0.07200533669002712</v>
       </c>
       <c r="Q11">
-        <v>5.407045122814016</v>
+        <v>3.569803091762833</v>
       </c>
       <c r="R11">
-        <v>5.407045122814016</v>
+        <v>21.418818550577</v>
       </c>
       <c r="S11">
-        <v>0.01569013348097595</v>
+        <v>0.007529364464629485</v>
       </c>
       <c r="T11">
-        <v>0.01569013348097595</v>
+        <v>0.005206707020110366</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.52807221271776</v>
+        <v>3.321288666666666</v>
       </c>
       <c r="H12">
-        <v>1.52807221271776</v>
+        <v>9.963865999999999</v>
       </c>
       <c r="I12">
-        <v>0.07435569970388808</v>
+        <v>0.1383878802086788</v>
       </c>
       <c r="J12">
-        <v>0.07435569970388808</v>
+        <v>0.1385585285965482</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.281986221992543</v>
+        <v>13.08067733333333</v>
       </c>
       <c r="N12">
-        <v>0.281986221992543</v>
+        <v>39.24203199999999</v>
       </c>
       <c r="O12">
-        <v>0.01681605607730918</v>
+        <v>0.6621446251628267</v>
       </c>
       <c r="P12">
-        <v>0.01681605607730918</v>
+        <v>0.6859835984989974</v>
       </c>
       <c r="Q12">
-        <v>0.4308953101960666</v>
+        <v>43.44470537952355</v>
       </c>
       <c r="R12">
-        <v>0.4308953101960666</v>
+        <v>391.0023484157119</v>
       </c>
       <c r="S12">
-        <v>0.001250369615888143</v>
+        <v>0.09163279106785376</v>
       </c>
       <c r="T12">
-        <v>0.001250369615888143</v>
+        <v>0.09504887804938633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.52807221271776</v>
+        <v>3.321288666666666</v>
       </c>
       <c r="H13">
-        <v>1.52807221271776</v>
+        <v>9.963865999999999</v>
       </c>
       <c r="I13">
-        <v>0.07435569970388808</v>
+        <v>0.1383878802086788</v>
       </c>
       <c r="J13">
-        <v>0.07435569970388808</v>
+        <v>0.1385585285965482</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.43118103247563</v>
+        <v>3.909188</v>
       </c>
       <c r="N13">
-        <v>1.43118103247563</v>
+        <v>11.727564</v>
       </c>
       <c r="O13">
-        <v>0.085347505026426</v>
+        <v>0.1978833172770733</v>
       </c>
       <c r="P13">
-        <v>0.085347505026426</v>
+        <v>0.2050076447200108</v>
       </c>
       <c r="Q13">
-        <v>2.186947967094724</v>
+        <v>12.98354180026933</v>
       </c>
       <c r="R13">
-        <v>2.186947967094724</v>
+        <v>116.851876202424</v>
       </c>
       <c r="S13">
-        <v>0.00634607345422101</v>
+        <v>0.02738465280663559</v>
       </c>
       <c r="T13">
-        <v>0.00634607345422101</v>
+        <v>0.02840555760344861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.17523121154432</v>
+        <v>3.321288666666666</v>
       </c>
       <c r="H14">
-        <v>1.17523121154432</v>
+        <v>9.963865999999999</v>
       </c>
       <c r="I14">
-        <v>0.05718652451169619</v>
+        <v>0.1383878802086788</v>
       </c>
       <c r="J14">
-        <v>0.05718652451169619</v>
+        <v>0.1385585285965482</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>11.5172257189742</v>
+        <v>0.4136356666666667</v>
       </c>
       <c r="N14">
-        <v>11.5172257189742</v>
+        <v>1.240907</v>
       </c>
       <c r="O14">
-        <v>0.6868219027751622</v>
+        <v>0.02093826080099338</v>
       </c>
       <c r="P14">
-        <v>0.6868219027751622</v>
+        <v>0.02169209406033295</v>
       </c>
       <c r="Q14">
-        <v>13.53540313533945</v>
+        <v>1.373803451829111</v>
       </c>
       <c r="R14">
-        <v>13.53540313533945</v>
+        <v>12.364231066462</v>
       </c>
       <c r="S14">
-        <v>0.03927695757822163</v>
+        <v>0.002897601527505946</v>
       </c>
       <c r="T14">
-        <v>0.03927695757822163</v>
+        <v>0.003005624635177655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.17523121154432</v>
+        <v>3.321288666666666</v>
       </c>
       <c r="H15">
-        <v>1.17523121154432</v>
+        <v>9.963865999999999</v>
       </c>
       <c r="I15">
-        <v>0.05718652451169619</v>
+        <v>0.1383878802086788</v>
       </c>
       <c r="J15">
-        <v>0.05718652451169619</v>
+        <v>0.1385585285965482</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.53847486906217</v>
+        <v>0.2919639999999999</v>
       </c>
       <c r="N15">
-        <v>3.53847486906217</v>
+        <v>0.8758919999999999</v>
       </c>
       <c r="O15">
-        <v>0.2110145361211025</v>
+        <v>0.01477923416460999</v>
       </c>
       <c r="P15">
-        <v>0.2110145361211025</v>
+        <v>0.01531132603063174</v>
       </c>
       <c r="Q15">
-        <v>4.158526107387063</v>
+        <v>0.9696967242746664</v>
       </c>
       <c r="R15">
-        <v>4.158526107387063</v>
+        <v>8.727270518471999</v>
       </c>
       <c r="S15">
-        <v>0.01206718794221363</v>
+        <v>0.00204526688714806</v>
       </c>
       <c r="T15">
-        <v>0.01206718794221363</v>
+        <v>0.00212151480566636</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.17523121154432</v>
+        <v>3.321288666666666</v>
       </c>
       <c r="H16">
-        <v>1.17523121154432</v>
+        <v>9.963865999999999</v>
       </c>
       <c r="I16">
-        <v>0.05718652451169619</v>
+        <v>0.1383878802086788</v>
       </c>
       <c r="J16">
-        <v>0.05718652451169619</v>
+        <v>0.1385585285965482</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.281986221992543</v>
+        <v>2.0595505</v>
       </c>
       <c r="N16">
-        <v>0.281986221992543</v>
+        <v>4.119101</v>
       </c>
       <c r="O16">
-        <v>0.01681605607730918</v>
+        <v>0.1042545625944965</v>
       </c>
       <c r="P16">
-        <v>0.01681605607730918</v>
+        <v>0.07200533669002712</v>
       </c>
       <c r="Q16">
-        <v>0.3313990093111018</v>
+        <v>6.840361734077665</v>
       </c>
       <c r="R16">
-        <v>0.3313990093111018</v>
+        <v>41.04217040446599</v>
       </c>
       <c r="S16">
-        <v>0.000961651803055099</v>
+        <v>0.01442756791953539</v>
       </c>
       <c r="T16">
-        <v>0.000961651803055099</v>
+        <v>0.009976953502869201</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J17">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.08067733333333</v>
+      </c>
+      <c r="N17">
+        <v>39.24203199999999</v>
+      </c>
+      <c r="O17">
+        <v>0.6621446251628267</v>
+      </c>
+      <c r="P17">
+        <v>0.6859835984989974</v>
+      </c>
+      <c r="Q17">
+        <v>15.42811388644444</v>
+      </c>
+      <c r="R17">
+        <v>138.853024978</v>
+      </c>
+      <c r="S17">
+        <v>0.03254070027584845</v>
+      </c>
+      <c r="T17">
+        <v>0.03375382345246286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J18">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.909188</v>
+      </c>
+      <c r="N18">
+        <v>11.727564</v>
+      </c>
+      <c r="O18">
+        <v>0.1978833172770733</v>
+      </c>
+      <c r="P18">
+        <v>0.2050076447200108</v>
+      </c>
+      <c r="Q18">
+        <v>4.610724363166666</v>
+      </c>
+      <c r="R18">
+        <v>41.49651926849999</v>
+      </c>
+      <c r="S18">
+        <v>0.009724856885337398</v>
+      </c>
+      <c r="T18">
+        <v>0.0100874013043835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J19">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.4136356666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.240907</v>
+      </c>
+      <c r="O19">
+        <v>0.02093826080099338</v>
+      </c>
+      <c r="P19">
+        <v>0.02169209406033295</v>
+      </c>
+      <c r="Q19">
+        <v>0.4878660340138888</v>
+      </c>
+      <c r="R19">
+        <v>4.390794306124999</v>
+      </c>
+      <c r="S19">
+        <v>0.001028998262811729</v>
+      </c>
+      <c r="T19">
+        <v>0.001067359503680271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J20">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2919639999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.8758919999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01477923416460999</v>
+      </c>
+      <c r="P20">
+        <v>0.01531132603063174</v>
+      </c>
+      <c r="Q20">
+        <v>0.3443593728333332</v>
+      </c>
+      <c r="R20">
+        <v>3.099234355499999</v>
+      </c>
+      <c r="S20">
+        <v>0.0007263165945640494</v>
+      </c>
+      <c r="T20">
+        <v>0.0007533938082366529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.17523121154432</v>
-      </c>
-      <c r="H17">
-        <v>1.17523121154432</v>
-      </c>
-      <c r="I17">
-        <v>0.05718652451169619</v>
-      </c>
-      <c r="J17">
-        <v>0.05718652451169619</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.43118103247563</v>
-      </c>
-      <c r="N17">
-        <v>1.43118103247563</v>
-      </c>
-      <c r="O17">
-        <v>0.085347505026426</v>
-      </c>
-      <c r="P17">
-        <v>0.085347505026426</v>
-      </c>
-      <c r="Q17">
-        <v>1.681968618735585</v>
-      </c>
-      <c r="R17">
-        <v>1.681968618735585</v>
-      </c>
-      <c r="S17">
-        <v>0.004880727188205825</v>
-      </c>
-      <c r="T17">
-        <v>0.004880727188205825</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.179458333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.538374999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.04914439993807461</v>
+      </c>
+      <c r="J21">
+        <v>0.04920500071185331</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.0595505</v>
+      </c>
+      <c r="N21">
+        <v>4.119101</v>
+      </c>
+      <c r="O21">
+        <v>0.1042545625944965</v>
+      </c>
+      <c r="P21">
+        <v>0.07200533669002712</v>
+      </c>
+      <c r="Q21">
+        <v>2.429154000145833</v>
+      </c>
+      <c r="R21">
+        <v>14.574924000875</v>
+      </c>
+      <c r="S21">
+        <v>0.005123527919512971</v>
+      </c>
+      <c r="T21">
+        <v>0.003543022643090022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.0886745</v>
+      </c>
+      <c r="H22">
+        <v>0.177349</v>
+      </c>
+      <c r="I22">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J22">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.08067733333333</v>
+      </c>
+      <c r="N22">
+        <v>39.24203199999999</v>
+      </c>
+      <c r="O22">
+        <v>0.6621446251628267</v>
+      </c>
+      <c r="P22">
+        <v>0.6859835984989974</v>
+      </c>
+      <c r="Q22">
+        <v>1.159922522194667</v>
+      </c>
+      <c r="R22">
+        <v>6.959535133167999</v>
+      </c>
+      <c r="S22">
+        <v>0.002446487718184809</v>
+      </c>
+      <c r="T22">
+        <v>0.001691795481109503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.0886745</v>
+      </c>
+      <c r="H23">
+        <v>0.177349</v>
+      </c>
+      <c r="I23">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J23">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.909188</v>
+      </c>
+      <c r="N23">
+        <v>11.727564</v>
+      </c>
+      <c r="O23">
+        <v>0.1978833172770733</v>
+      </c>
+      <c r="P23">
+        <v>0.2050076447200108</v>
+      </c>
+      <c r="Q23">
+        <v>0.346645291306</v>
+      </c>
+      <c r="R23">
+        <v>2.079871747836</v>
+      </c>
+      <c r="S23">
+        <v>0.0007311380126856406</v>
+      </c>
+      <c r="T23">
+        <v>0.0005055966464637328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.0886745</v>
+      </c>
+      <c r="H24">
+        <v>0.177349</v>
+      </c>
+      <c r="I24">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J24">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.4136356666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.240907</v>
+      </c>
+      <c r="O24">
+        <v>0.02093826080099338</v>
+      </c>
+      <c r="P24">
+        <v>0.02169209406033295</v>
+      </c>
+      <c r="Q24">
+        <v>0.03667893592383334</v>
+      </c>
+      <c r="R24">
+        <v>0.220073615543</v>
+      </c>
+      <c r="S24">
+        <v>7.736255184006672E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.349776115256085E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.0886745</v>
+      </c>
+      <c r="H25">
+        <v>0.177349</v>
+      </c>
+      <c r="I25">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J25">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2919639999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.8758919999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.01477923416460999</v>
+      </c>
+      <c r="P25">
+        <v>0.01531132603063174</v>
+      </c>
+      <c r="Q25">
+        <v>0.025889761718</v>
+      </c>
+      <c r="R25">
+        <v>0.155338570308</v>
+      </c>
+      <c r="S25">
+        <v>5.460621968954942E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.776129960701231E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.0886745</v>
+      </c>
+      <c r="H26">
+        <v>0.177349</v>
+      </c>
+      <c r="I26">
+        <v>0.00369479359223553</v>
+      </c>
+      <c r="J26">
+        <v>0.002466233135619168</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.0595505</v>
+      </c>
+      <c r="N26">
+        <v>4.119101</v>
+      </c>
+      <c r="O26">
+        <v>0.1042545625944965</v>
+      </c>
+      <c r="P26">
+        <v>0.07200533669002712</v>
+      </c>
+      <c r="Q26">
+        <v>0.18262961081225</v>
+      </c>
+      <c r="R26">
+        <v>0.7305184432489999</v>
+      </c>
+      <c r="S26">
+        <v>0.0003851990898354638</v>
+      </c>
+      <c r="T26">
+        <v>0.0001775819472863595</v>
       </c>
     </row>
   </sheetData>
